--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2433.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2433.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.022871118802884</v>
+        <v>0.9976536631584167</v>
       </c>
       <c r="B1">
-        <v>2.078667917635432</v>
+        <v>2.834280967712402</v>
       </c>
       <c r="C1">
-        <v>8.948956369161987</v>
+        <v>3.059633016586304</v>
       </c>
       <c r="D1">
-        <v>2.52952857089949</v>
+        <v>3.6593177318573</v>
       </c>
       <c r="E1">
-        <v>0.9922261295764293</v>
+        <v>1.404904365539551</v>
       </c>
     </row>
   </sheetData>
